--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.1454079383868</v>
+        <v>17.651035</v>
       </c>
       <c r="H2">
-        <v>17.1454079383868</v>
+        <v>35.30207</v>
       </c>
       <c r="I2">
-        <v>0.1370544341315852</v>
+        <v>0.1325947993186649</v>
       </c>
       <c r="J2">
-        <v>0.1370544341315852</v>
+        <v>0.09359607745031152</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.139495134882905</v>
+        <v>0.149141</v>
       </c>
       <c r="N2">
-        <v>0.139495134882905</v>
+        <v>0.298282</v>
       </c>
       <c r="O2">
-        <v>0.04896015200905932</v>
+        <v>0.0495228742909193</v>
       </c>
       <c r="P2">
-        <v>0.04896015200905932</v>
+        <v>0.03523714386836697</v>
       </c>
       <c r="Q2">
-        <v>2.391700992987697</v>
+        <v>2.632493010935</v>
       </c>
       <c r="R2">
-        <v>2.391700992987697</v>
+        <v>10.52997204374</v>
       </c>
       <c r="S2">
-        <v>0.006710205928598018</v>
+        <v>0.006566475578287916</v>
       </c>
       <c r="T2">
-        <v>0.006710205928598018</v>
+        <v>0.003298058446631445</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.1454079383868</v>
+        <v>17.651035</v>
       </c>
       <c r="H3">
-        <v>17.1454079383868</v>
+        <v>35.30207</v>
       </c>
       <c r="I3">
-        <v>0.1370544341315852</v>
+        <v>0.1325947993186649</v>
       </c>
       <c r="J3">
-        <v>0.1370544341315852</v>
+        <v>0.09359607745031152</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.29628390398974</v>
+        <v>2.394597333333333</v>
       </c>
       <c r="N3">
-        <v>2.29628390398974</v>
+        <v>7.183792</v>
       </c>
       <c r="O3">
-        <v>0.8059521867172414</v>
+        <v>0.7951357622386686</v>
       </c>
       <c r="P3">
-        <v>0.8059521867172414</v>
+        <v>0.8486476295063856</v>
       </c>
       <c r="Q3">
-        <v>39.37072427625552</v>
+        <v>42.26712134157334</v>
       </c>
       <c r="R3">
-        <v>39.37072427625552</v>
+        <v>253.60272804944</v>
       </c>
       <c r="S3">
-        <v>0.1104593208876452</v>
+        <v>0.1054308668251299</v>
       </c>
       <c r="T3">
-        <v>0.1104593208876452</v>
+        <v>0.07943008925930295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.1454079383868</v>
+        <v>17.651035</v>
       </c>
       <c r="H4">
-        <v>17.1454079383868</v>
+        <v>35.30207</v>
       </c>
       <c r="I4">
-        <v>0.1370544341315852</v>
+        <v>0.1325947993186649</v>
       </c>
       <c r="J4">
-        <v>0.1370544341315852</v>
+        <v>0.09359607745031152</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.413377451840325</v>
+        <v>0.047275</v>
       </c>
       <c r="N4">
-        <v>0.413377451840325</v>
+        <v>0.141825</v>
       </c>
       <c r="O4">
-        <v>0.1450876612736993</v>
+        <v>0.01569785560042651</v>
       </c>
       <c r="P4">
-        <v>0.1450876612736993</v>
+        <v>0.0167543060899791</v>
       </c>
       <c r="Q4">
-        <v>7.087525044333215</v>
+        <v>0.8344526796250001</v>
       </c>
       <c r="R4">
-        <v>7.087525044333215</v>
+        <v>5.00671607775</v>
       </c>
       <c r="S4">
-        <v>0.01988490731534196</v>
+        <v>0.002081454013071934</v>
       </c>
       <c r="T4">
-        <v>0.01988490731534196</v>
+        <v>0.00156813733042391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.7235762397842</v>
+        <v>17.651035</v>
       </c>
       <c r="H5">
-        <v>34.7235762397842</v>
+        <v>35.30207</v>
       </c>
       <c r="I5">
-        <v>0.2775682042486505</v>
+        <v>0.1325947993186649</v>
       </c>
       <c r="J5">
-        <v>0.2775682042486505</v>
+        <v>0.09359607745031152</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.139495134882905</v>
+        <v>0.4205445</v>
       </c>
       <c r="N5">
-        <v>0.139495134882905</v>
+        <v>0.841089</v>
       </c>
       <c r="O5">
-        <v>0.04896015200905932</v>
+        <v>0.1396435078699855</v>
       </c>
       <c r="P5">
-        <v>0.04896015200905932</v>
+        <v>0.09936092053526834</v>
       </c>
       <c r="Q5">
-        <v>4.843769951185532</v>
+        <v>7.4230456885575</v>
       </c>
       <c r="R5">
-        <v>4.843769951185532</v>
+        <v>29.69218275423</v>
       </c>
       <c r="S5">
-        <v>0.01358978147289555</v>
+        <v>0.01851600290217514</v>
       </c>
       <c r="T5">
-        <v>0.01358978147289555</v>
+        <v>0.009299792413953224</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.7235762397842</v>
+        <v>35.25263733333333</v>
       </c>
       <c r="H6">
-        <v>34.7235762397842</v>
+        <v>105.757912</v>
       </c>
       <c r="I6">
-        <v>0.2775682042486505</v>
+        <v>0.2648182598168894</v>
       </c>
       <c r="J6">
-        <v>0.2775682042486505</v>
+        <v>0.2803950511268952</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.29628390398974</v>
+        <v>0.149141</v>
       </c>
       <c r="N6">
-        <v>2.29628390398974</v>
+        <v>0.298282</v>
       </c>
       <c r="O6">
-        <v>0.8059521867172414</v>
+        <v>0.0495228742909193</v>
       </c>
       <c r="P6">
-        <v>0.8059521867172414</v>
+        <v>0.03523714386836697</v>
       </c>
       <c r="Q6">
-        <v>79.73518920837704</v>
+        <v>5.257613584530667</v>
       </c>
       <c r="R6">
-        <v>79.73518920837704</v>
+        <v>31.545681507184</v>
       </c>
       <c r="S6">
-        <v>0.2237067011773778</v>
+        <v>0.01311456139085182</v>
       </c>
       <c r="T6">
-        <v>0.2237067011773778</v>
+        <v>0.009880320756536519</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.7235762397842</v>
+        <v>35.25263733333333</v>
       </c>
       <c r="H7">
-        <v>34.7235762397842</v>
+        <v>105.757912</v>
       </c>
       <c r="I7">
-        <v>0.2775682042486505</v>
+        <v>0.2648182598168894</v>
       </c>
       <c r="J7">
-        <v>0.2775682042486505</v>
+        <v>0.2803950511268952</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.413377451840325</v>
+        <v>2.394597333333333</v>
       </c>
       <c r="N7">
-        <v>0.413377451840325</v>
+        <v>7.183792</v>
       </c>
       <c r="O7">
-        <v>0.1450876612736993</v>
+        <v>0.7951357622386686</v>
       </c>
       <c r="P7">
-        <v>0.1450876612736993</v>
+        <v>0.8486476295063856</v>
       </c>
       <c r="Q7">
-        <v>14.35394346478525</v>
+        <v>84.41587135136712</v>
       </c>
       <c r="R7">
-        <v>14.35394346478525</v>
+        <v>759.7428421623041</v>
       </c>
       <c r="S7">
-        <v>0.04027172159837717</v>
+        <v>0.2105664688742201</v>
       </c>
       <c r="T7">
-        <v>0.04027172159837717</v>
+        <v>0.2379565954641614</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.0546832194084</v>
+        <v>35.25263733333333</v>
       </c>
       <c r="H8">
-        <v>25.0546832194084</v>
+        <v>105.757912</v>
       </c>
       <c r="I8">
-        <v>0.2002784327629845</v>
+        <v>0.2648182598168894</v>
       </c>
       <c r="J8">
-        <v>0.2002784327629845</v>
+        <v>0.2803950511268952</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.139495134882905</v>
+        <v>0.047275</v>
       </c>
       <c r="N8">
-        <v>0.139495134882905</v>
+        <v>0.141825</v>
       </c>
       <c r="O8">
-        <v>0.04896015200905932</v>
+        <v>0.01569785560042651</v>
       </c>
       <c r="P8">
-        <v>0.04896015200905932</v>
+        <v>0.0167543060899791</v>
       </c>
       <c r="Q8">
-        <v>3.495006415139831</v>
+        <v>1.666568429933333</v>
       </c>
       <c r="R8">
-        <v>3.495006415139831</v>
+        <v>14.9991158694</v>
       </c>
       <c r="S8">
-        <v>0.009805662512211885</v>
+        <v>0.00415707880296176</v>
       </c>
       <c r="T8">
-        <v>0.009805662512211885</v>
+        <v>0.004697824512695341</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.0546832194084</v>
+        <v>35.25263733333333</v>
       </c>
       <c r="H9">
-        <v>25.0546832194084</v>
+        <v>105.757912</v>
       </c>
       <c r="I9">
-        <v>0.2002784327629845</v>
+        <v>0.2648182598168894</v>
       </c>
       <c r="J9">
-        <v>0.2002784327629845</v>
+        <v>0.2803950511268952</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.29628390398974</v>
+        <v>0.4205445</v>
       </c>
       <c r="N9">
-        <v>2.29628390398974</v>
+        <v>0.841089</v>
       </c>
       <c r="O9">
-        <v>0.8059521867172414</v>
+        <v>0.1396435078699855</v>
       </c>
       <c r="P9">
-        <v>0.8059521867172414</v>
+        <v>0.09936092053526834</v>
       </c>
       <c r="Q9">
-        <v>57.53266579628934</v>
+        <v>14.825302741028</v>
       </c>
       <c r="R9">
-        <v>57.53266579628934</v>
+        <v>88.951816446168</v>
       </c>
       <c r="S9">
-        <v>0.1614148408376294</v>
+        <v>0.03698015074885567</v>
       </c>
       <c r="T9">
-        <v>0.1614148408376294</v>
+        <v>0.02786031039350193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.0546832194084</v>
+        <v>29.66513466666667</v>
       </c>
       <c r="H10">
-        <v>25.0546832194084</v>
+        <v>88.99540400000001</v>
       </c>
       <c r="I10">
-        <v>0.2002784327629845</v>
+        <v>0.2228448687506334</v>
       </c>
       <c r="J10">
-        <v>0.2002784327629845</v>
+        <v>0.2359527564674186</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.413377451840325</v>
+        <v>0.149141</v>
       </c>
       <c r="N10">
-        <v>0.413377451840325</v>
+        <v>0.298282</v>
       </c>
       <c r="O10">
-        <v>0.1450876612736993</v>
+        <v>0.0495228742909193</v>
       </c>
       <c r="P10">
-        <v>0.1450876612736993</v>
+        <v>0.03523714386836697</v>
       </c>
       <c r="Q10">
-        <v>10.35704110590559</v>
+        <v>4.424287849321334</v>
       </c>
       <c r="R10">
-        <v>10.35704110590559</v>
+        <v>26.545727095928</v>
       </c>
       <c r="S10">
-        <v>0.02905792941314325</v>
+        <v>0.01103591842151403</v>
       </c>
       <c r="T10">
-        <v>0.02905792941314325</v>
+        <v>0.008314301225780186</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.9711979334492</v>
+        <v>29.66513466666667</v>
       </c>
       <c r="H11">
-        <v>30.9711979334492</v>
+        <v>88.99540400000001</v>
       </c>
       <c r="I11">
-        <v>0.2475729957782262</v>
+        <v>0.2228448687506334</v>
       </c>
       <c r="J11">
-        <v>0.2475729957782262</v>
+        <v>0.2359527564674186</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.139495134882905</v>
+        <v>2.394597333333333</v>
       </c>
       <c r="N11">
-        <v>0.139495134882905</v>
+        <v>7.183792</v>
       </c>
       <c r="O11">
-        <v>0.04896015200905932</v>
+        <v>0.7951357622386686</v>
       </c>
       <c r="P11">
-        <v>0.04896015200905932</v>
+        <v>0.8486476295063856</v>
       </c>
       <c r="Q11">
-        <v>4.320331433211645</v>
+        <v>71.03605236577424</v>
       </c>
       <c r="R11">
-        <v>4.320331433211645</v>
+        <v>639.3244712919681</v>
       </c>
       <c r="S11">
-        <v>0.01212121150664015</v>
+        <v>0.177191924575011</v>
       </c>
       <c r="T11">
-        <v>0.01212121150664015</v>
+        <v>0.2002407474515723</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.9711979334492</v>
+        <v>29.66513466666667</v>
       </c>
       <c r="H12">
-        <v>30.9711979334492</v>
+        <v>88.99540400000001</v>
       </c>
       <c r="I12">
-        <v>0.2475729957782262</v>
+        <v>0.2228448687506334</v>
       </c>
       <c r="J12">
-        <v>0.2475729957782262</v>
+        <v>0.2359527564674186</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.29628390398974</v>
+        <v>0.047275</v>
       </c>
       <c r="N12">
-        <v>2.29628390398974</v>
+        <v>0.141825</v>
       </c>
       <c r="O12">
-        <v>0.8059521867172414</v>
+        <v>0.01569785560042651</v>
       </c>
       <c r="P12">
-        <v>0.8059521867172414</v>
+        <v>0.0167543060899791</v>
       </c>
       <c r="Q12">
-        <v>71.1186633018597</v>
+        <v>1.402419241366667</v>
       </c>
       <c r="R12">
-        <v>71.1186633018597</v>
+        <v>12.6217731723</v>
       </c>
       <c r="S12">
-        <v>0.1995319973195998</v>
+        <v>0.003498186570943442</v>
       </c>
       <c r="T12">
-        <v>0.1995319973195998</v>
+        <v>0.003953224704629428</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.9711979334492</v>
+        <v>29.66513466666667</v>
       </c>
       <c r="H13">
-        <v>30.9711979334492</v>
+        <v>88.99540400000001</v>
       </c>
       <c r="I13">
-        <v>0.2475729957782262</v>
+        <v>0.2228448687506334</v>
       </c>
       <c r="J13">
-        <v>0.2475729957782262</v>
+        <v>0.2359527564674186</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.413377451840325</v>
+        <v>0.4205445</v>
       </c>
       <c r="N13">
-        <v>0.413377451840325</v>
+        <v>0.841089</v>
       </c>
       <c r="O13">
-        <v>0.1450876612736993</v>
+        <v>0.1396435078699855</v>
       </c>
       <c r="P13">
-        <v>0.1450876612736993</v>
+        <v>0.09936092053526834</v>
       </c>
       <c r="Q13">
-        <v>12.80279488217157</v>
+        <v>12.475509225826</v>
       </c>
       <c r="R13">
-        <v>12.80279488217157</v>
+        <v>74.853055354956</v>
       </c>
       <c r="S13">
-        <v>0.03591978695198626</v>
+        <v>0.03111883918316498</v>
       </c>
       <c r="T13">
-        <v>0.03591978695198626</v>
+        <v>0.0234444830854367</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.6697546282229</v>
+        <v>32.892914</v>
       </c>
       <c r="H14">
-        <v>12.6697546282229</v>
+        <v>98.678742</v>
       </c>
       <c r="I14">
-        <v>0.1012776165721551</v>
+        <v>0.2470919881375853</v>
       </c>
       <c r="J14">
-        <v>0.1012776165721551</v>
+        <v>0.2616261080138164</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.139495134882905</v>
+        <v>0.149141</v>
       </c>
       <c r="N14">
-        <v>0.139495134882905</v>
+        <v>0.298282</v>
       </c>
       <c r="O14">
-        <v>0.04896015200905932</v>
+        <v>0.0495228742909193</v>
       </c>
       <c r="P14">
-        <v>0.04896015200905932</v>
+        <v>0.03523714386836697</v>
       </c>
       <c r="Q14">
-        <v>1.767369130797263</v>
+        <v>4.905682086873999</v>
       </c>
       <c r="R14">
-        <v>1.767369130797263</v>
+        <v>29.434092521244</v>
       </c>
       <c r="S14">
-        <v>0.004958567502487937</v>
+        <v>0.01223670546683096</v>
       </c>
       <c r="T14">
-        <v>0.004958567502487937</v>
+        <v>0.009218956807803767</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,181 +1343,181 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.6697546282229</v>
+        <v>32.892914</v>
       </c>
       <c r="H15">
-        <v>12.6697546282229</v>
+        <v>98.678742</v>
       </c>
       <c r="I15">
-        <v>0.1012776165721551</v>
+        <v>0.2470919881375853</v>
       </c>
       <c r="J15">
-        <v>0.1012776165721551</v>
+        <v>0.2616261080138164</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.29628390398974</v>
+        <v>2.394597333333333</v>
       </c>
       <c r="N15">
-        <v>2.29628390398974</v>
+        <v>7.183792</v>
       </c>
       <c r="O15">
-        <v>0.8059521867172414</v>
+        <v>0.7951357622386686</v>
       </c>
       <c r="P15">
-        <v>0.8059521867172414</v>
+        <v>0.8486476295063856</v>
       </c>
       <c r="Q15">
-        <v>29.09335362028776</v>
+        <v>78.76528414996267</v>
       </c>
       <c r="R15">
-        <v>29.09335362028776</v>
+        <v>708.887557349664</v>
       </c>
       <c r="S15">
-        <v>0.08162491654183872</v>
+        <v>0.196471676330847</v>
       </c>
       <c r="T15">
-        <v>0.08162491654183872</v>
+        <v>0.2220283763829069</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.6697546282229</v>
+        <v>32.892914</v>
       </c>
       <c r="H16">
-        <v>12.6697546282229</v>
+        <v>98.678742</v>
       </c>
       <c r="I16">
-        <v>0.1012776165721551</v>
+        <v>0.2470919881375853</v>
       </c>
       <c r="J16">
-        <v>0.1012776165721551</v>
+        <v>0.2616261080138164</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.413377451840325</v>
+        <v>0.047275</v>
       </c>
       <c r="N16">
-        <v>0.413377451840325</v>
+        <v>0.141825</v>
       </c>
       <c r="O16">
-        <v>0.1450876612736993</v>
+        <v>0.01569785560042651</v>
       </c>
       <c r="P16">
-        <v>0.1450876612736993</v>
+        <v>0.0167543060899791</v>
       </c>
       <c r="Q16">
-        <v>5.237390883656946</v>
+        <v>1.55501250935</v>
       </c>
       <c r="R16">
-        <v>5.237390883656946</v>
+        <v>13.99511258415</v>
       </c>
       <c r="S16">
-        <v>0.01469413252782843</v>
+        <v>0.003878814349806115</v>
       </c>
       <c r="T16">
-        <v>0.01469413252782843</v>
+        <v>0.004383363894793414</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.53463747831224</v>
+        <v>32.892914</v>
       </c>
       <c r="H17">
-        <v>4.53463747831224</v>
+        <v>98.678742</v>
       </c>
       <c r="I17">
-        <v>0.03624831650639852</v>
+        <v>0.2470919881375853</v>
       </c>
       <c r="J17">
-        <v>0.03624831650639852</v>
+        <v>0.2616261080138164</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.139495134882905</v>
+        <v>0.4205445</v>
       </c>
       <c r="N17">
-        <v>0.139495134882905</v>
+        <v>0.841089</v>
       </c>
       <c r="O17">
-        <v>0.04896015200905932</v>
+        <v>0.1396435078699855</v>
       </c>
       <c r="P17">
-        <v>0.04896015200905932</v>
+        <v>0.09936092053526834</v>
       </c>
       <c r="Q17">
-        <v>0.6325598666822421</v>
+        <v>13.832934071673</v>
       </c>
       <c r="R17">
-        <v>0.6325598666822421</v>
+        <v>82.997604430038</v>
       </c>
       <c r="S17">
-        <v>0.001774723086225765</v>
+        <v>0.03450479199010127</v>
       </c>
       <c r="T17">
-        <v>0.001774723086225765</v>
+        <v>0.02599541092831234</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.53463747831224</v>
+        <v>13.123757</v>
       </c>
       <c r="H18">
-        <v>4.53463747831224</v>
+        <v>39.371271</v>
       </c>
       <c r="I18">
-        <v>0.03624831650639852</v>
+        <v>0.09858582942710861</v>
       </c>
       <c r="J18">
-        <v>0.03624831650639852</v>
+        <v>0.1043847153958169</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.29628390398974</v>
+        <v>0.149141</v>
       </c>
       <c r="N18">
-        <v>2.29628390398974</v>
+        <v>0.298282</v>
       </c>
       <c r="O18">
-        <v>0.8059521867172414</v>
+        <v>0.0495228742909193</v>
       </c>
       <c r="P18">
-        <v>0.8059521867172414</v>
+        <v>0.03523714386836697</v>
       </c>
       <c r="Q18">
-        <v>10.41281505187702</v>
+        <v>1.957290242737</v>
       </c>
       <c r="R18">
-        <v>10.41281505187702</v>
+        <v>11.743741456422</v>
       </c>
       <c r="S18">
-        <v>0.02921440995315056</v>
+        <v>0.004882253637584713</v>
       </c>
       <c r="T18">
-        <v>0.02921440995315056</v>
+        <v>0.003678219234060939</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>13.123757</v>
+      </c>
+      <c r="H19">
+        <v>39.371271</v>
+      </c>
+      <c r="I19">
+        <v>0.09858582942710861</v>
+      </c>
+      <c r="J19">
+        <v>0.1043847153958169</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.394597333333333</v>
+      </c>
+      <c r="N19">
+        <v>7.183792</v>
+      </c>
+      <c r="O19">
+        <v>0.7951357622386686</v>
+      </c>
+      <c r="P19">
+        <v>0.8486476295063856</v>
+      </c>
+      <c r="Q19">
+        <v>31.42611351551467</v>
+      </c>
+      <c r="R19">
+        <v>282.835021639632</v>
+      </c>
+      <c r="S19">
+        <v>0.07838911862745537</v>
+      </c>
+      <c r="T19">
+        <v>0.08858584127735869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>13.123757</v>
+      </c>
+      <c r="H20">
+        <v>39.371271</v>
+      </c>
+      <c r="I20">
+        <v>0.09858582942710861</v>
+      </c>
+      <c r="J20">
+        <v>0.1043847153958169</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.047275</v>
+      </c>
+      <c r="N20">
+        <v>0.141825</v>
+      </c>
+      <c r="O20">
+        <v>0.01569785560042651</v>
+      </c>
+      <c r="P20">
+        <v>0.0167543060899791</v>
+      </c>
+      <c r="Q20">
+        <v>0.620425612175</v>
+      </c>
+      <c r="R20">
+        <v>5.583830509575001</v>
+      </c>
+      <c r="S20">
+        <v>0.00154758611459503</v>
+      </c>
+      <c r="T20">
+        <v>0.00174889347285687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>13.123757</v>
+      </c>
+      <c r="H21">
+        <v>39.371271</v>
+      </c>
+      <c r="I21">
+        <v>0.09858582942710861</v>
+      </c>
+      <c r="J21">
+        <v>0.1043847153958169</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4205445</v>
+      </c>
+      <c r="N21">
+        <v>0.841089</v>
+      </c>
+      <c r="O21">
+        <v>0.1396435078699855</v>
+      </c>
+      <c r="P21">
+        <v>0.09936092053526834</v>
+      </c>
+      <c r="Q21">
+        <v>5.519123825686499</v>
+      </c>
+      <c r="R21">
+        <v>33.114742954119</v>
+      </c>
+      <c r="S21">
+        <v>0.01376687104747349</v>
+      </c>
+      <c r="T21">
+        <v>0.01037176141154036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>4.53463747831224</v>
-      </c>
-      <c r="H19">
-        <v>4.53463747831224</v>
-      </c>
-      <c r="I19">
-        <v>0.03624831650639852</v>
-      </c>
-      <c r="J19">
-        <v>0.03624831650639852</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.413377451840325</v>
-      </c>
-      <c r="N19">
-        <v>0.413377451840325</v>
-      </c>
-      <c r="O19">
-        <v>0.1450876612736993</v>
-      </c>
-      <c r="P19">
-        <v>0.1450876612736993</v>
-      </c>
-      <c r="Q19">
-        <v>1.874516885804351</v>
-      </c>
-      <c r="R19">
-        <v>1.874516885804351</v>
-      </c>
-      <c r="S19">
-        <v>0.00525918346702219</v>
-      </c>
-      <c r="T19">
-        <v>0.00525918346702219</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.534637500000001</v>
+      </c>
+      <c r="H22">
+        <v>9.069275000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.03406425454911809</v>
+      </c>
+      <c r="J22">
+        <v>0.02404529154574149</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.149141</v>
+      </c>
+      <c r="N22">
+        <v>0.298282</v>
+      </c>
+      <c r="O22">
+        <v>0.0495228742909193</v>
+      </c>
+      <c r="P22">
+        <v>0.03523714386836697</v>
+      </c>
+      <c r="Q22">
+        <v>0.6763003713875001</v>
+      </c>
+      <c r="R22">
+        <v>2.70520148555</v>
+      </c>
+      <c r="S22">
+        <v>0.001686959795849851</v>
+      </c>
+      <c r="T22">
+        <v>0.0008472873975541209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.534637500000001</v>
+      </c>
+      <c r="H23">
+        <v>9.069275000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.03406425454911809</v>
+      </c>
+      <c r="J23">
+        <v>0.02404529154574149</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.394597333333333</v>
+      </c>
+      <c r="N23">
+        <v>7.183792</v>
+      </c>
+      <c r="O23">
+        <v>0.7951357622386686</v>
+      </c>
+      <c r="P23">
+        <v>0.8486476295063856</v>
+      </c>
+      <c r="Q23">
+        <v>10.85863086513334</v>
+      </c>
+      <c r="R23">
+        <v>65.15178519080001</v>
+      </c>
+      <c r="S23">
+        <v>0.02708570700600504</v>
+      </c>
+      <c r="T23">
+        <v>0.02040597967108345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.534637500000001</v>
+      </c>
+      <c r="H24">
+        <v>9.069275000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.03406425454911809</v>
+      </c>
+      <c r="J24">
+        <v>0.02404529154574149</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.047275</v>
+      </c>
+      <c r="N24">
+        <v>0.141825</v>
+      </c>
+      <c r="O24">
+        <v>0.01569785560042651</v>
+      </c>
+      <c r="P24">
+        <v>0.0167543060899791</v>
+      </c>
+      <c r="Q24">
+        <v>0.2143749878125001</v>
+      </c>
+      <c r="R24">
+        <v>1.286249926875</v>
+      </c>
+      <c r="S24">
+        <v>0.0005347357490482276</v>
+      </c>
+      <c r="T24">
+        <v>0.0004028621745801395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.534637500000001</v>
+      </c>
+      <c r="H25">
+        <v>9.069275000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.03406425454911809</v>
+      </c>
+      <c r="J25">
+        <v>0.02404529154574149</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4205445</v>
+      </c>
+      <c r="N25">
+        <v>0.841089</v>
+      </c>
+      <c r="O25">
+        <v>0.1396435078699855</v>
+      </c>
+      <c r="P25">
+        <v>0.09936092053526834</v>
+      </c>
+      <c r="Q25">
+        <v>1.90701686011875</v>
+      </c>
+      <c r="R25">
+        <v>7.628067440475001</v>
+      </c>
+      <c r="S25">
+        <v>0.004756851998214962</v>
+      </c>
+      <c r="T25">
+        <v>0.002389162302523779</v>
       </c>
     </row>
   </sheetData>
